--- a/在日华人就职平台需求整理.xlsx
+++ b/在日华人就职平台需求整理.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="一期功能列表" sheetId="2" r:id="rId1"/>
     <sheet name="二期功能考虑" sheetId="3" r:id="rId2"/>
     <sheet name="截图" sheetId="1" r:id="rId3"/>
+    <sheet name="ijob APP画面" sheetId="4" r:id="rId4"/>
+    <sheet name="ios画面功能流程梳理" sheetId="5" r:id="rId5"/>
+    <sheet name="功能类别" sheetId="6" r:id="rId6"/>
+    <sheet name="后台表结构" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="175">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,483 +39,648 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮播图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘信息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机+短信登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户选择求职者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP登录过的启动时进行自动登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求职者</t>
+  </si>
+  <si>
+    <t>注册登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业和职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求职者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业和职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本信息、求职意向、工作经验、教育经历、证书、语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台信息、APP版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言设置页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文、日文，首次弹出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业信息编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业联络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求职者联络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘投递提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到招聘管理对应页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求职者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位搜索页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业搜索页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可链接企业详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘信息详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有名企业，链接企业详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正社员和兼职，链接招聘信息详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业信息和招聘职位列表，链接招聘信息详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才搜索页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可再搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息参考我的简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位人才储备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于职位管理的二级页面，数据来源于人才收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏时需要归类职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文、日文，设置后Cookie记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案号等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件、验证码、密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件、密码（待审核状态可登录，不能招聘）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉设置和关于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以定程度适配手机浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考手机各模块功能，有不同的地方下方列出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接三方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业拉黑用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台拉黑用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏感词过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增删改查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过后方可招聘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘信息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看留言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮播图管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页企业列表管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位列表自动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户收藏查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业人才储备查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于岗位，新建、查看投递、结束招聘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户数量、企业注册数量、招聘岗位数量（新、完了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+  </si>
+  <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机APP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮播图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘信息列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机+短信登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户选择求职者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP登录过的启动时进行自动登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求职者</t>
-  </si>
-  <si>
-    <t>注册登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业和职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求职者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的简历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业和职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本信息、求职意向、工作经验、教育经历、证书、语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台信息、APP版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语言设置页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文、日文，首次弹出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业信息编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的投递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业联络</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求职者联络</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘投递提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转到招聘管理对应页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求职者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位搜索页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业搜索页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可链接企业详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘信息详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有名企业，链接企业详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正社员和兼职，链接招聘信息详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业信息和招聘职位列表，链接招聘信息详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人才搜索页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人才列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可再搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人才详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息参考我的简历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位人才储备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于职位管理的二级页面，数据来源于人才收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人才收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏时需要归类职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沟通页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要沟通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投递简历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台网站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语言选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文、日文，设置后Cookie记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备案号等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件、验证码、密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件、密码（待审核状态可登录，不能招聘）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去掉设置和关于</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页内容</t>
+  </si>
+  <si>
+    <t>地点定位</t>
+  </si>
+  <si>
+    <t>职位搜索功能</t>
+  </si>
+  <si>
+    <t>图片轮播</t>
+  </si>
+  <si>
+    <t>正社员职位分类</t>
+  </si>
+  <si>
+    <t>小时工职位分类</t>
+  </si>
+  <si>
+    <t>名企推荐</t>
+  </si>
+  <si>
+    <t>搜索区域</t>
+  </si>
+  <si>
+    <t>职位分类</t>
+  </si>
+  <si>
+    <t>本月推荐</t>
+  </si>
+  <si>
+    <t>最新上线</t>
+  </si>
+  <si>
+    <t>更多功能</t>
+  </si>
+  <si>
+    <t>功能区域</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>必要性</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>搜索的筛选功能</t>
+  </si>
+  <si>
+    <t>东京站、池袋、上野、御徒町等</t>
+  </si>
+  <si>
+    <t>2、</t>
+  </si>
+  <si>
+    <t>东京都、千叶县，茨城县等</t>
+  </si>
+  <si>
+    <t>2、主要地铁站</t>
+  </si>
+  <si>
+    <t>3、日语能力</t>
+  </si>
+  <si>
+    <t>1、 城市筛选 （到区）</t>
+  </si>
+  <si>
+    <t>可参照 ijob的 Ujob 筛选列表</t>
+  </si>
+  <si>
+    <t>排序功能</t>
+  </si>
+  <si>
+    <t>1、发布时间</t>
+  </si>
+  <si>
+    <t>2、薪资</t>
+  </si>
+  <si>
+    <t>4、行业</t>
+  </si>
+  <si>
+    <t>5、雇佣形式</t>
+  </si>
+  <si>
+    <t>6、薪资范围</t>
+  </si>
+  <si>
+    <t>求职者搜索</t>
+  </si>
+  <si>
+    <t>批量导入求职者数据 （提供Excel模板）</t>
+  </si>
+  <si>
+    <t>批量导入商户数据（提供Excel模板）</t>
   </si>
   <si>
     <t>平台管理站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以定程度适配手机浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考手机各模块功能，有不同的地方下方列出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接三方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业拉黑用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台拉黑用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏感词过滤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增删改查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过后方可招聘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘信息管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客服管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看留言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮播图管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页企业列表管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位列表自动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户收藏查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业人才储备查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信分享功能</t>
   </si>
   <si>
     <t>统计数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于岗位，新建、查看投递、结束招聘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册用户数量、企业注册数量、招聘岗位数量（新、完了）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
+  </si>
+  <si>
+    <t>1、今日访问量 （画面展示历史访问走势）</t>
+  </si>
+  <si>
+    <t>3、今日新商家数（画面展示历史访问走势）</t>
+  </si>
+  <si>
+    <t>以上信息展示，分日维度，周维度，和月维度分别在画面展示</t>
+  </si>
+  <si>
+    <t>职位相关统计</t>
+  </si>
+  <si>
+    <t>每日每个职位访问数统计</t>
+  </si>
+  <si>
+    <t>2、今日新会员数（画面展示历史访问走势）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   商户访问数，会员访问数</t>
+  </si>
+  <si>
+    <t>4、今日新职位数</t>
+  </si>
+  <si>
+    <t>会员投递简历数</t>
+  </si>
+  <si>
+    <t>商会查看简历数</t>
+  </si>
+  <si>
+    <t>基础表</t>
+  </si>
+  <si>
+    <t>统计维度表</t>
+  </si>
+  <si>
+    <t>1、 客户信息表</t>
+  </si>
+  <si>
+    <t>2、企业信息表</t>
+  </si>
+  <si>
+    <t>基本表</t>
+  </si>
+  <si>
+    <t>1、地址信息 （都道府县 区）</t>
+  </si>
+  <si>
+    <t>天统计信息</t>
+  </si>
+  <si>
+    <t>周统计信息</t>
+  </si>
+  <si>
+    <t>月统计信息</t>
+  </si>
+  <si>
+    <t>ijob   IOS端 功能梳理</t>
+  </si>
+  <si>
+    <t>企业和用户数据定期备份 （维护）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -528,6 +697,29 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -556,7 +748,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -675,11 +867,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -701,6 +913,34 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1375,6 +1615,234 @@
         <a:xfrm>
           <a:off x="259774" y="17526000"/>
           <a:ext cx="10896018" cy="10702636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>229095</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>107561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715495" cy="10165961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238060</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>179278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="6925"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8965" y="8830235"/>
+          <a:ext cx="5715495" cy="9278455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>98613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>229095</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>35844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect t="6565" b="-22841"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16772966"/>
+          <a:ext cx="5715495" cy="11591349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>229095</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>134455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect t="13669"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23980588"/>
+          <a:ext cx="5715495" cy="8606102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>229095</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>98597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect t="14658"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="31752989"/>
+          <a:ext cx="5715495" cy="8507490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>229095</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>160900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect t="25935"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="44569380"/>
+          <a:ext cx="5715495" cy="7529441"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1656,7 +2124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1666,24 +2134,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="56.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="56.21875" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1692,558 +2160,558 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="F10" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="F27" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2251,93 +2719,93 @@
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="12"/>
       <c r="B48" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F48" s="14"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F49" s="14"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F50" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F51" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D52" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="F52" s="14"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F53" s="14"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="12"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -2345,139 +2813,139 @@
       <c r="E54" s="13"/>
       <c r="F54" s="14"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="15"/>
       <c r="B55" s="16" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F55" s="17"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F56" s="17"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F57" s="17"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
       <c r="E58" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="15"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F59" s="17"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="15"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F60" s="17"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="15"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F61" s="17"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="15"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F62" s="17"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="15"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F63" s="17"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="15"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="16" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="15"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -2485,7 +2953,7 @@
       <c r="E66" s="16"/>
       <c r="F66" s="17"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="18"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -2493,9 +2961,9 @@
       <c r="E67" s="19"/>
       <c r="F67" s="20"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B68" s="10">
         <f>SUBTOTAL(103,表1[工程])</f>
@@ -2532,28 +3000,28 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2566,15 +3034,447 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AZ100" sqref="AZ100"/>
+    <sheetView topLeftCell="A145" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="DC36" sqref="DC35:DC36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21">
+      <c r="A1" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18">
+      <c r="A3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="22"/>
+      <c r="B7" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="22"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="22"/>
+      <c r="B9" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="22"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="22"/>
+      <c r="B11" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="22"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="22"/>
+      <c r="B15" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="22"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B7:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A2:D47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="C27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="C28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="C34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="C37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="C38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="C39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>